--- a/Music and Memory/BehaviouralResults/YoungAdults/BehaviouralResults-AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/YoungAdults/BehaviouralResults-AllParticipants.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject\Music and Memory\BehaviouralResults\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="405" windowWidth="27075" windowHeight="14595" tabRatio="592"/>
+    <workbookView xWindow="1080" yWindow="400" windowWidth="32720" windowHeight="21340" tabRatio="592"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="Group B - pref" sheetId="3" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="487">
   <si>
     <t>ID</t>
   </si>
@@ -1482,22 +1477,30 @@
   </si>
   <si>
     <t>Lyric+oldnew</t>
+  </si>
+  <si>
+    <t>ISS:</t>
+  </si>
+  <si>
+    <t>BOLD:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1651,6 +1654,19 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFC02FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFC02FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1708,7 +1724,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1742,8 +1758,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1820,6 +1860,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1827,7 +1872,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1844,6 +1889,18 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1860,6 +1917,18 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2130,7 +2199,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2138,44 +2207,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG56"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O35" sqref="O35"/>
+      <selection pane="topRight" activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="2" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
     <col min="12" max="17" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="68" t="s">
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
     </row>
     <row r="2" spans="1:33" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
@@ -2313,11 +2382,11 @@
         <f>AVERAGE(I3,L3)</f>
         <v>78.985649999999993</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="68">
         <f>AVERAGE(R3:AG3)</f>
         <v>12.125</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="69">
         <v>29</v>
       </c>
       <c r="Q3">
@@ -2483,11 +2552,11 @@
         <f t="shared" si="0"/>
         <v>83.333500000000001</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="68">
         <f t="shared" si="1"/>
         <v>19.25</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="69">
         <v>24</v>
       </c>
       <c r="Q5">
@@ -2570,11 +2639,11 @@
         <f t="shared" si="0"/>
         <v>86.531450000000007</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="68">
         <f t="shared" si="1"/>
         <v>20.375</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="69">
         <v>17</v>
       </c>
       <c r="Q6">
@@ -2649,11 +2718,11 @@
         <f t="shared" si="0"/>
         <v>88.509299999999996</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="68">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="69">
         <v>17</v>
       </c>
       <c r="Q7">
@@ -2733,11 +2802,11 @@
         <f t="shared" si="0"/>
         <v>83.134950000000003</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="68">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="69">
         <v>19</v>
       </c>
       <c r="Q8">
@@ -2816,11 +2885,11 @@
         <f t="shared" si="0"/>
         <v>81.780550000000005</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="68">
         <f t="shared" si="1"/>
         <v>7.25</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="69">
         <v>14</v>
       </c>
       <c r="Q9">
@@ -2900,11 +2969,11 @@
         <f t="shared" si="0"/>
         <v>84.44935000000001</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="68">
         <f t="shared" si="1"/>
         <v>9.875</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="69">
         <v>18</v>
       </c>
       <c r="Q10">
@@ -2983,11 +3052,11 @@
         <f t="shared" si="0"/>
         <v>97.826099999999997</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="68">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="69">
         <v>15</v>
       </c>
       <c r="Q11">
@@ -3063,11 +3132,11 @@
         <f t="shared" si="0"/>
         <v>95.373099999999994</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="68">
         <f t="shared" si="1"/>
         <v>14.25</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="69">
         <v>26</v>
       </c>
       <c r="Q12">
@@ -3146,11 +3215,11 @@
         <f t="shared" si="0"/>
         <v>81.409300000000002</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="68">
         <f t="shared" si="1"/>
         <v>9.75</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="69">
         <v>16</v>
       </c>
       <c r="Q13">
@@ -3229,11 +3298,11 @@
         <f t="shared" si="0"/>
         <v>90.476200000000006</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="68">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="69">
         <v>16</v>
       </c>
       <c r="Q14">
@@ -3313,11 +3382,11 @@
         <f t="shared" si="0"/>
         <v>87.481249999999989</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="68">
         <f t="shared" si="1"/>
         <v>17.125</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="69">
         <v>24</v>
       </c>
       <c r="Q15">
@@ -3396,11 +3465,11 @@
         <f t="shared" si="0"/>
         <v>85.92134999999999</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="68">
         <f>AVERAGE(R16:AG16)</f>
         <v>12.625</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="69">
         <v>17</v>
       </c>
       <c r="Q16">
@@ -3566,11 +3635,11 @@
         <f t="shared" si="0"/>
         <v>95.445149999999998</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="68">
         <f t="shared" si="3"/>
         <v>18.125</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="69">
         <v>21</v>
       </c>
       <c r="Q18">
@@ -3725,11 +3794,11 @@
         <f t="shared" si="0"/>
         <v>90.476200000000006</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="68">
         <f t="shared" si="3"/>
         <v>10.875</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="69">
         <v>17</v>
       </c>
       <c r="Q20">
@@ -3803,11 +3872,11 @@
         <f t="shared" si="0"/>
         <v>71.889049999999997</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="68">
         <f t="shared" si="3"/>
         <v>10.75</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="69">
         <v>17</v>
       </c>
       <c r="Q21">
@@ -3964,11 +4033,11 @@
         <f t="shared" si="0"/>
         <v>85.92134999999999</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="68">
         <f t="shared" si="3"/>
         <v>6.375</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="69">
         <v>20</v>
       </c>
       <c r="Q23">
@@ -4125,11 +4194,11 @@
         <f t="shared" si="0"/>
         <v>88.509299999999996</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="68">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="69">
         <v>20</v>
       </c>
       <c r="Q25">
@@ -4204,11 +4273,11 @@
         <f t="shared" si="0"/>
         <v>84.857550000000003</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="68">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="69">
         <v>25</v>
       </c>
       <c r="Q26">
@@ -4410,7 +4479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="8:27">
+    <row r="33" spans="2:27">
       <c r="O33">
         <f>AVERAGE(O3,O5:O16,O18,O20:O21,O23,O25:O26)</f>
         <v>12.855263157894736</v>
@@ -4435,7 +4504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="8:27">
+    <row r="34" spans="2:27">
       <c r="O34">
         <f>STDEV(O3,O5:O16,O18,O20:O21,O23,O25:O26)</f>
         <v>4.2909107663383486</v>
@@ -4460,7 +4529,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="8:27">
+    <row r="35" spans="2:27">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="V35" t="s">
@@ -4483,9 +4558,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="8:27">
+    <row r="36" spans="2:27">
+      <c r="B36" s="60">
+        <v>37.930999999999997</v>
+      </c>
+      <c r="C36" s="60">
+        <v>100</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
+      <c r="N36" t="s">
+        <v>485</v>
+      </c>
+      <c r="O36">
+        <f>AVERAGE(O3,O5:O16,O18,O20:O21,O23,O25:O26)</f>
+        <v>12.855263157894736</v>
+      </c>
+      <c r="P36">
+        <f>AVERAGE(P3,P5:P16,P18,P20:P21,P23,P25:P26)</f>
+        <v>19.578947368421051</v>
+      </c>
       <c r="V36" t="s">
         <v>15</v>
       </c>
@@ -4506,7 +4598,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="8:27">
+    <row r="37" spans="2:27">
+      <c r="B37">
+        <v>28.571400000000001</v>
+      </c>
+      <c r="C37">
+        <v>66.667000000000002</v>
+      </c>
+      <c r="N37" t="s">
+        <v>486</v>
+      </c>
+      <c r="O37">
+        <f>AVERAGE(O3:O16,O18,O20:O21,O23,O25)</f>
+        <v>13.085526315789474</v>
+      </c>
+      <c r="P37">
+        <f>AVERAGE(P3:P16,P18,P20:P21,P23,P25)</f>
+        <v>19.315789473684209</v>
+      </c>
       <c r="V37" t="s">
         <v>198</v>
       </c>
@@ -4527,7 +4636,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="8:27">
+    <row r="38" spans="2:27">
+      <c r="B38">
+        <v>23.8095</v>
+      </c>
+      <c r="C38" s="2">
+        <v>66.667000000000002</v>
+      </c>
       <c r="V38" t="s">
         <v>199</v>
       </c>
@@ -4548,7 +4663,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="8:27">
+    <row r="39" spans="2:27">
+      <c r="B39">
+        <v>51.7241</v>
+      </c>
+      <c r="C39" s="3">
+        <v>82.758600000000001</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="V39" t="s">
@@ -4571,7 +4692,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="8:27">
+    <row r="40" spans="2:27">
+      <c r="B40">
+        <v>33.332999999999998</v>
+      </c>
+      <c r="C40">
+        <v>85.714299999999994</v>
+      </c>
       <c r="V40" t="s">
         <v>201</v>
       </c>
@@ -4592,7 +4719,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="8:27">
+    <row r="41" spans="2:27">
+      <c r="B41">
+        <v>51.7241</v>
+      </c>
+      <c r="C41">
+        <v>79.310299999999998</v>
+      </c>
       <c r="V41" t="s">
         <v>202</v>
       </c>
@@ -4613,7 +4746,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="8:27">
+    <row r="42" spans="2:27">
+      <c r="B42">
+        <v>23.8095</v>
+      </c>
+      <c r="C42" s="3">
+        <v>80.952399999999997</v>
+      </c>
       <c r="V42" t="s">
         <v>203</v>
       </c>
@@ -4634,7 +4773,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="8:27">
+    <row r="43" spans="2:27">
+      <c r="B43">
+        <v>48.2759</v>
+      </c>
+      <c r="C43">
+        <v>86.29</v>
+      </c>
       <c r="V43" t="s">
         <v>204</v>
       </c>
@@ -4655,7 +4800,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="8:27">
+    <row r="44" spans="2:27">
+      <c r="B44">
+        <v>48.2759</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
       <c r="V44" t="s">
         <v>330</v>
       </c>
@@ -4676,7 +4827,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="8:27">
+    <row r="45" spans="2:27">
+      <c r="B45">
+        <v>14.2857</v>
+      </c>
+      <c r="C45">
+        <v>90.746200000000002</v>
+      </c>
       <c r="V45" t="s">
         <v>331</v>
       </c>
@@ -4697,7 +4854,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="8:27">
+    <row r="46" spans="2:27">
+      <c r="B46">
+        <v>48.2759</v>
+      </c>
+      <c r="C46">
+        <v>75.862099999999998</v>
+      </c>
       <c r="V46" t="s">
         <v>332</v>
       </c>
@@ -4718,7 +4881,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="8:27">
+    <row r="47" spans="2:27">
+      <c r="B47">
+        <v>38.095199999999998</v>
+      </c>
+      <c r="C47">
+        <v>80.952399999999997</v>
+      </c>
       <c r="I47" s="6"/>
       <c r="V47" t="s">
         <v>333</v>
@@ -4740,7 +4909,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="8:27">
+    <row r="48" spans="2:27">
+      <c r="B48">
+        <v>44.827599999999997</v>
+      </c>
+      <c r="C48">
+        <v>79.310299999999998</v>
+      </c>
       <c r="V48" t="s">
         <v>334</v>
       </c>
@@ -4761,7 +4936,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="8:27">
+    <row r="49" spans="2:27">
+      <c r="B49">
+        <v>19.047599999999999</v>
+      </c>
+      <c r="C49">
+        <v>76.1905</v>
+      </c>
       <c r="V49" t="s">
         <v>336</v>
       </c>
@@ -4782,7 +4963,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="8:27">
+    <row r="50" spans="2:27">
+      <c r="B50">
+        <v>14.2857</v>
+      </c>
+      <c r="C50">
+        <v>95.238100000000003</v>
+      </c>
       <c r="H50" s="2"/>
       <c r="V50" t="s">
         <v>337</v>
@@ -4804,7 +4991,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="8:27">
+    <row r="51" spans="2:27">
+      <c r="B51">
+        <v>19.047599999999999</v>
+      </c>
+      <c r="C51">
+        <v>80.952399999999997</v>
+      </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="V51" t="s">
@@ -4827,7 +5020,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="8:27">
+    <row r="52" spans="2:27">
+      <c r="B52">
+        <v>51.7241</v>
+      </c>
+      <c r="C52" s="2">
+        <v>65.517200000000003</v>
+      </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="V52" t="s">
@@ -4850,7 +5049,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="8:27">
+    <row r="53" spans="2:27">
+      <c r="B53">
+        <v>52.381</v>
+      </c>
+      <c r="C53" s="2">
+        <v>76.1905</v>
+      </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="V53" t="s">
@@ -4873,15 +5078,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="8:27">
+    <row r="54" spans="2:27">
+      <c r="B54">
+        <v>23.8095</v>
+      </c>
+      <c r="C54" s="2">
+        <v>85.714299999999994</v>
+      </c>
       <c r="H54" s="2"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="8:27">
+    <row r="55" spans="2:27">
+      <c r="B55">
+        <v>37.930999999999997</v>
+      </c>
+      <c r="C55" s="2">
+        <v>82.758600000000001</v>
+      </c>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="8:27">
+    <row r="56" spans="2:27">
       <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:27">
+      <c r="B57" s="6"/>
+      <c r="C57" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4902,11 +5123,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G4" sqref="G4:L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1">
@@ -7646,7 +7867,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" t="s">
@@ -8651,25 +8872,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AM38"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y3" sqref="Y3"/>
+      <selection pane="topRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
-    <col min="9" max="9" width="24.875" customWidth="1"/>
-    <col min="13" max="14" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.375" customWidth="1"/>
-    <col min="25" max="32" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" customWidth="1"/>
+    <col min="13" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="25" max="32" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17" customWidth="1"/>
-    <col min="37" max="37" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -11812,21 +12033,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="3:4">
       <c r="D34">
         <f>AVERAGE(D3,D5:D10,D12:D17,D19,D21:D22,D25,D27:D28)</f>
         <v>23.157894736842106</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="3:4">
       <c r="D35">
         <f>STDEV(D3,D5:D10,D12:D17,D19,D21:D22,D25,D27:D28)</f>
         <v>4.6578864770138519</v>
       </c>
     </row>
+    <row r="37" spans="3:4">
+      <c r="C37" t="s">
+        <v>485</v>
+      </c>
+      <c r="D37" s="67">
+        <f>AVERAGE(D3,D5:D10,D12:D17,D19,D21:D22,D25,D27:D28)</f>
+        <v>23.157894736842106</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D38">
+        <f>AVERAGE(D3:D10,D12:D17,D19,D21:D22,D25,D27)</f>
+        <v>23.684210526315791</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11843,7 +12082,7 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
@@ -14291,9 +14530,9 @@
       <selection activeCell="F5" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -17030,7 +17269,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:18" ht="16.5" thickBot="1">
+    <row r="78" spans="1:18" ht="16" thickBot="1">
       <c r="A78" s="1" t="s">
         <v>467</v>
       </c>
@@ -17074,7 +17313,7 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
     </row>
-    <row r="79" spans="1:18" ht="16.5" thickBot="1">
+    <row r="79" spans="1:18" ht="16" thickBot="1">
       <c r="A79" s="22">
         <v>43314.561597222222</v>
       </c>
@@ -17197,7 +17436,7 @@
       <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -19663,7 +19902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="16.5" thickBot="1">
+    <row r="177" spans="1:4" ht="16" thickBot="1">
       <c r="A177" s="1">
         <v>4</v>
       </c>
@@ -19677,7 +19916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="16.5" thickBot="1">
+    <row r="178" spans="1:4" ht="16" thickBot="1">
       <c r="A178" s="19">
         <v>4</v>
       </c>
@@ -20573,7 +20812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="16.5" thickBot="1">
+    <row r="242" spans="1:4" ht="16" thickBot="1">
       <c r="A242" s="1">
         <v>4</v>
       </c>
@@ -20587,7 +20826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16.5" thickBot="1">
+    <row r="243" spans="1:4" ht="16" thickBot="1">
       <c r="A243" s="19">
         <v>4</v>
       </c>
